--- a/medicine/Enfance/L'Ami_de_poche/L'Ami_de_poche.xlsx
+++ b/medicine/Enfance/L'Ami_de_poche/L'Ami_de_poche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Ami_de_poche</t>
+          <t>L'Ami_de_poche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ami de poche était une collection de littérature d'enfance et de jeunesse en format de poche des éditions Casterman.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Ami_de_poche</t>
+          <t>L'Ami_de_poche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection est créée en 1980. Elle remporte un certain succès, mais s'arrête dès 1984. 
-« La disparition de la collection demeure inexplicable, même si l'on se console en découvrant que certains titres réapparaîtront dans les futures collections du même éditeur. »[1]
+« La disparition de la collection demeure inexplicable, même si l'on se console en découvrant que certains titres réapparaîtront dans les futures collections du même éditeur. »
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Ami_de_poche</t>
+          <t>L'Ami_de_poche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Quelques titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Pierre Andrevon, La Fée et le géomètre, no 15, illustré par Enki Bilal
 Alfred Assollant, Les Aventures de Corcoran
